--- a/data/pca/factorExposure/factorExposure_2009-08-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01778280658633228</v>
+        <v>0.01676892739560476</v>
       </c>
       <c r="C2">
-        <v>-0.001540737004658626</v>
+        <v>-0.0009176944339202977</v>
       </c>
       <c r="D2">
-        <v>-0.003585739315937643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009546105187595827</v>
+      </c>
+      <c r="E2">
+        <v>-0.00225090807577446</v>
+      </c>
+      <c r="F2">
+        <v>0.01297558807310887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09604994123568038</v>
+        <v>0.09376557217436225</v>
       </c>
       <c r="C4">
-        <v>-0.02087588793893598</v>
+        <v>-0.0147720459212155</v>
       </c>
       <c r="D4">
-        <v>-0.06546078150033496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08371661945841323</v>
+      </c>
+      <c r="E4">
+        <v>-0.0288992470957941</v>
+      </c>
+      <c r="F4">
+        <v>-0.03313282041395187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1489686235307272</v>
+        <v>0.1594308518795715</v>
       </c>
       <c r="C6">
-        <v>-0.02704266097863989</v>
+        <v>-0.02704683405961995</v>
       </c>
       <c r="D6">
-        <v>0.02554911076116927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02528656331618273</v>
+      </c>
+      <c r="E6">
+        <v>-0.008964275204977031</v>
+      </c>
+      <c r="F6">
+        <v>-0.04119224876936219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06325993358449641</v>
+        <v>0.06348664158570844</v>
       </c>
       <c r="C7">
-        <v>-0.003089471179411033</v>
+        <v>0.001686468241603304</v>
       </c>
       <c r="D7">
-        <v>-0.03993119845065122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05242793245513817</v>
+      </c>
+      <c r="E7">
+        <v>-0.01195584477679818</v>
+      </c>
+      <c r="F7">
+        <v>-0.04706629138138051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06324629342046446</v>
+        <v>0.05780091437281257</v>
       </c>
       <c r="C8">
-        <v>0.009717672661585698</v>
+        <v>0.01310661457764077</v>
       </c>
       <c r="D8">
-        <v>-0.01792771810706164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03189412370215926</v>
+      </c>
+      <c r="E8">
+        <v>-0.01769169330982254</v>
+      </c>
+      <c r="F8">
+        <v>0.02597970966622899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0741526291621919</v>
+        <v>0.07078777622931161</v>
       </c>
       <c r="C9">
-        <v>-0.01715535298601101</v>
+        <v>-0.01032221014742731</v>
       </c>
       <c r="D9">
-        <v>-0.0677029426285498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0872384957458399</v>
+      </c>
+      <c r="E9">
+        <v>-0.02386570723470778</v>
+      </c>
+      <c r="F9">
+        <v>-0.04698034975630851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08193035927359715</v>
+        <v>0.09038972891511143</v>
       </c>
       <c r="C10">
-        <v>-0.0120999444587358</v>
+        <v>-0.0206978848053732</v>
       </c>
       <c r="D10">
-        <v>0.1663928514766822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1629165839712713</v>
+      </c>
+      <c r="E10">
+        <v>0.0319658834535862</v>
+      </c>
+      <c r="F10">
+        <v>0.05759393783730159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09373028355108395</v>
+        <v>0.08846579081672312</v>
       </c>
       <c r="C11">
-        <v>-0.01823122900409239</v>
+        <v>-0.01050015787395367</v>
       </c>
       <c r="D11">
-        <v>-0.09489476487736161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1170799921060543</v>
+      </c>
+      <c r="E11">
+        <v>-0.04638493038692387</v>
+      </c>
+      <c r="F11">
+        <v>-0.02305960836348998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09978548007954724</v>
+        <v>0.09186545401207444</v>
       </c>
       <c r="C12">
-        <v>-0.01597891022967489</v>
+        <v>-0.007804611605440713</v>
       </c>
       <c r="D12">
-        <v>-0.09788885489884795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.131507242670122</v>
+      </c>
+      <c r="E12">
+        <v>-0.04547279869396618</v>
+      </c>
+      <c r="F12">
+        <v>-0.03148418244070506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04290411025127688</v>
+        <v>0.0411714155699207</v>
       </c>
       <c r="C13">
-        <v>-0.006285720584672497</v>
+        <v>-0.002406775873256715</v>
       </c>
       <c r="D13">
-        <v>-0.03127702787354763</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05348334798656925</v>
+      </c>
+      <c r="E13">
+        <v>0.004050318926774556</v>
+      </c>
+      <c r="F13">
+        <v>-0.0008275713658190939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02017921131352115</v>
+        <v>0.02415667711514181</v>
       </c>
       <c r="C14">
-        <v>-0.01533609719722698</v>
+        <v>-0.01386232776121895</v>
       </c>
       <c r="D14">
-        <v>-0.02391253447328496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03367265003025274</v>
+      </c>
+      <c r="E14">
+        <v>-0.01906424962319992</v>
+      </c>
+      <c r="F14">
+        <v>-0.01428593623385849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03512930276596458</v>
+        <v>0.03308773879896732</v>
       </c>
       <c r="C15">
-        <v>-0.00792684376138502</v>
+        <v>-0.004725662873689781</v>
       </c>
       <c r="D15">
-        <v>-0.02919661505037474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04505155926622972</v>
+      </c>
+      <c r="E15">
+        <v>-0.005867737611531068</v>
+      </c>
+      <c r="F15">
+        <v>-0.02559863318018335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07924599913163612</v>
+        <v>0.07440175800164768</v>
       </c>
       <c r="C16">
-        <v>-0.008799692231469159</v>
+        <v>-0.001087558749488635</v>
       </c>
       <c r="D16">
-        <v>-0.09798162674896889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1276942686316059</v>
+      </c>
+      <c r="E16">
+        <v>-0.06061800560975243</v>
+      </c>
+      <c r="F16">
+        <v>-0.02756575981886874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0008212444500392452</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002049432658217763</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001580416994444151</v>
+      </c>
+      <c r="E17">
+        <v>-0.000978938885950405</v>
+      </c>
+      <c r="F17">
+        <v>0.002311847377320613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01731179378989018</v>
+        <v>0.03663662290589338</v>
       </c>
       <c r="C18">
-        <v>0.003105426210194273</v>
+        <v>0.002928343745999763</v>
       </c>
       <c r="D18">
-        <v>-0.03001951277049556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0155298836697878</v>
+      </c>
+      <c r="E18">
+        <v>0.008814813965120474</v>
+      </c>
+      <c r="F18">
+        <v>0.008470304401152658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06651238932353427</v>
+        <v>0.0623874447995076</v>
       </c>
       <c r="C20">
-        <v>-0.006652492543523292</v>
+        <v>-0.0002486919214857284</v>
       </c>
       <c r="D20">
-        <v>-0.0496561754092345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07679990815480769</v>
+      </c>
+      <c r="E20">
+        <v>-0.05532561698714695</v>
+      </c>
+      <c r="F20">
+        <v>-0.03037382101160117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04219443594752397</v>
+        <v>0.04085428541339132</v>
       </c>
       <c r="C21">
-        <v>-0.01004131644169115</v>
+        <v>-0.006448150827036208</v>
       </c>
       <c r="D21">
-        <v>-0.02769843033945128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03910560869551773</v>
+      </c>
+      <c r="E21">
+        <v>0.0003299664574541078</v>
+      </c>
+      <c r="F21">
+        <v>0.02363234670169793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04048332376704407</v>
+        <v>0.04326316874655806</v>
       </c>
       <c r="C22">
-        <v>-0.0007835518753343587</v>
+        <v>-0.0004870594131928765</v>
       </c>
       <c r="D22">
-        <v>0.01110416881697285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004294484061981149</v>
+      </c>
+      <c r="E22">
+        <v>-0.03679266009708358</v>
+      </c>
+      <c r="F22">
+        <v>0.03919998275973174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04044646712105975</v>
+        <v>0.04323891867726383</v>
       </c>
       <c r="C23">
-        <v>-0.000774052477571404</v>
+        <v>-0.0004785462166487221</v>
       </c>
       <c r="D23">
-        <v>0.0110844823405092</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.00430997372450417</v>
+      </c>
+      <c r="E23">
+        <v>-0.0369754865351422</v>
+      </c>
+      <c r="F23">
+        <v>0.03915943755141164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08503117698407174</v>
+        <v>0.08026404427297762</v>
       </c>
       <c r="C24">
-        <v>-0.009233164188071658</v>
+        <v>-0.001826540256841305</v>
       </c>
       <c r="D24">
-        <v>-0.1024299710715992</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1199955228525824</v>
+      </c>
+      <c r="E24">
+        <v>-0.04850385317491444</v>
+      </c>
+      <c r="F24">
+        <v>-0.0297083248556734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08983083955132849</v>
+        <v>0.08486984835868097</v>
       </c>
       <c r="C25">
-        <v>-0.01164583775316041</v>
+        <v>-0.004334443960560217</v>
       </c>
       <c r="D25">
-        <v>-0.08904469482443617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095124367781825</v>
+      </c>
+      <c r="E25">
+        <v>-0.03194331314203351</v>
+      </c>
+      <c r="F25">
+        <v>-0.02661126526445986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05832884827721042</v>
+        <v>0.05896591829757777</v>
       </c>
       <c r="C26">
-        <v>-0.01812793716845141</v>
+        <v>-0.01452166319274702</v>
       </c>
       <c r="D26">
-        <v>-0.0179162306738659</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04222213619399675</v>
+      </c>
+      <c r="E26">
+        <v>-0.02965582331116317</v>
+      </c>
+      <c r="F26">
+        <v>0.004975600412684625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1296612190530855</v>
+        <v>0.1414410320515764</v>
       </c>
       <c r="C28">
-        <v>-0.01043470668563425</v>
+        <v>-0.02225946710283841</v>
       </c>
       <c r="D28">
-        <v>0.272231497074054</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2612800280354047</v>
+      </c>
+      <c r="E28">
+        <v>0.06739392061437925</v>
+      </c>
+      <c r="F28">
+        <v>-0.003870709089493666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02627787166910227</v>
+        <v>0.02884406434041806</v>
       </c>
       <c r="C29">
-        <v>-0.01006210274353756</v>
+        <v>-0.008791521941453558</v>
       </c>
       <c r="D29">
-        <v>-0.02093023954509033</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03138314861347619</v>
+      </c>
+      <c r="E29">
+        <v>-0.0141043517850088</v>
+      </c>
+      <c r="F29">
+        <v>0.01244062569110367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06800485431357028</v>
+        <v>0.05931040064157714</v>
       </c>
       <c r="C30">
-        <v>-0.01044562088775535</v>
+        <v>-0.002761628548224185</v>
       </c>
       <c r="D30">
-        <v>-0.05910535431357791</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0879288810207137</v>
+      </c>
+      <c r="E30">
+        <v>-0.0138533009169622</v>
+      </c>
+      <c r="F30">
+        <v>-0.07984696480826552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05121504522033654</v>
+        <v>0.05128140555492918</v>
       </c>
       <c r="C31">
-        <v>-0.01688088939308886</v>
+        <v>-0.01567503305110154</v>
       </c>
       <c r="D31">
-        <v>-0.02017022289448043</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02441884548276739</v>
+      </c>
+      <c r="E31">
+        <v>-0.02885525475406039</v>
+      </c>
+      <c r="F31">
+        <v>0.001026814960164701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04844199410124294</v>
+        <v>0.05154649330988102</v>
       </c>
       <c r="C32">
-        <v>-0.002258474478364919</v>
+        <v>0.001768037193215415</v>
       </c>
       <c r="D32">
-        <v>-0.01910815441710876</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03644225195943148</v>
+      </c>
+      <c r="E32">
+        <v>-0.03461826502431119</v>
+      </c>
+      <c r="F32">
+        <v>-0.004911912252705586</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.094775944668072</v>
+        <v>0.0888194602590623</v>
       </c>
       <c r="C33">
-        <v>-0.01408070303285517</v>
+        <v>-0.006559210826119226</v>
       </c>
       <c r="D33">
-        <v>-0.07541414421427181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1028659924678502</v>
+      </c>
+      <c r="E33">
+        <v>-0.04472951921405004</v>
+      </c>
+      <c r="F33">
+        <v>-0.03960434553996331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07238190133226076</v>
+        <v>0.06828070935866817</v>
       </c>
       <c r="C34">
-        <v>-0.01622670349660525</v>
+        <v>-0.01014045183146769</v>
       </c>
       <c r="D34">
-        <v>-0.08284744472081518</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1100548553639353</v>
+      </c>
+      <c r="E34">
+        <v>-0.03512250565614504</v>
+      </c>
+      <c r="F34">
+        <v>-0.03335250407576907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02401661464588416</v>
+        <v>0.02546788489654613</v>
       </c>
       <c r="C35">
-        <v>-0.002897826786291214</v>
+        <v>-0.002600660965752227</v>
       </c>
       <c r="D35">
-        <v>-0.006405401347184195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01197640330048847</v>
+      </c>
+      <c r="E35">
+        <v>-0.01262112892590115</v>
+      </c>
+      <c r="F35">
+        <v>-0.001741305436276261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02735532320963958</v>
+        <v>0.02765405040889888</v>
       </c>
       <c r="C36">
-        <v>-0.008021531548945597</v>
+        <v>-0.00686688496827026</v>
       </c>
       <c r="D36">
-        <v>-0.03840039949374185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03975158387697803</v>
+      </c>
+      <c r="E36">
+        <v>-0.01669452753697882</v>
+      </c>
+      <c r="F36">
+        <v>-0.01527568496811204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0002087301581140217</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.000557644061580144</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002168604775799052</v>
+      </c>
+      <c r="E37">
+        <v>0.0007655452889114345</v>
+      </c>
+      <c r="F37">
+        <v>0.001530813960854095</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1178515300362824</v>
+        <v>0.1042810034131997</v>
       </c>
       <c r="C39">
-        <v>-0.02469771232527875</v>
+        <v>-0.01575081927175803</v>
       </c>
       <c r="D39">
-        <v>-0.1385614234069449</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1540570969081207</v>
+      </c>
+      <c r="E39">
+        <v>-0.0590535248372483</v>
+      </c>
+      <c r="F39">
+        <v>-0.03078313917288251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04041262525141107</v>
+        <v>0.04136883611036764</v>
       </c>
       <c r="C40">
-        <v>-0.0101578652956053</v>
+        <v>-0.007156624547692754</v>
       </c>
       <c r="D40">
-        <v>-0.006680358162948642</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03019786382584501</v>
+      </c>
+      <c r="E40">
+        <v>-0.001013833315676009</v>
+      </c>
+      <c r="F40">
+        <v>0.01862146127030169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02543565991746712</v>
+        <v>0.02771592102261872</v>
       </c>
       <c r="C41">
-        <v>-0.007145143464473875</v>
+        <v>-0.006820203895010628</v>
       </c>
       <c r="D41">
-        <v>-0.009474050167987923</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01072444676903488</v>
+      </c>
+      <c r="E41">
+        <v>-0.01222106605903369</v>
+      </c>
+      <c r="F41">
+        <v>0.005604458508036179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04225086248804635</v>
+        <v>0.04100187257896782</v>
       </c>
       <c r="C43">
-        <v>-0.008399639456171733</v>
+        <v>-0.00713342416116162</v>
       </c>
       <c r="D43">
-        <v>-0.01223077858208058</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01846564024617903</v>
+      </c>
+      <c r="E43">
+        <v>-0.02550702918871902</v>
+      </c>
+      <c r="F43">
+        <v>0.01261742945559416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07738447938828001</v>
+        <v>0.0801096896453625</v>
       </c>
       <c r="C44">
-        <v>-0.02723346903445911</v>
+        <v>-0.01939375502156786</v>
       </c>
       <c r="D44">
-        <v>-0.07622816809231178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09781174878110477</v>
+      </c>
+      <c r="E44">
+        <v>-0.06183819175814395</v>
+      </c>
+      <c r="F44">
+        <v>-0.1605695147592099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02055240936855634</v>
+        <v>0.02320298797657134</v>
       </c>
       <c r="C46">
-        <v>-0.003847723621825821</v>
+        <v>-0.003319388075276692</v>
       </c>
       <c r="D46">
-        <v>-0.005805012705389722</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01282954946624866</v>
+      </c>
+      <c r="E46">
+        <v>-0.02585011130701814</v>
+      </c>
+      <c r="F46">
+        <v>0.006719242413058083</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0534619344896554</v>
+        <v>0.05267764465176143</v>
       </c>
       <c r="C47">
-        <v>-0.004493668076688124</v>
+        <v>-0.003832015502795608</v>
       </c>
       <c r="D47">
-        <v>-0.006820384905166401</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01158086692594673</v>
+      </c>
+      <c r="E47">
+        <v>-0.02351369598806592</v>
+      </c>
+      <c r="F47">
+        <v>0.03259292379450238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04919851326179314</v>
+        <v>0.05002712894986593</v>
       </c>
       <c r="C48">
-        <v>-0.005234502128631107</v>
+        <v>-0.002169218089215189</v>
       </c>
       <c r="D48">
-        <v>-0.04089372581907196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05072645631566372</v>
+      </c>
+      <c r="E48">
+        <v>0.004891326059843934</v>
+      </c>
+      <c r="F48">
+        <v>-0.009808760054470999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2012060033014667</v>
+        <v>0.1996349997388485</v>
       </c>
       <c r="C49">
-        <v>-0.02046161451348866</v>
+        <v>-0.01903383749234745</v>
       </c>
       <c r="D49">
-        <v>0.01764177195835524</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007061342380919512</v>
+      </c>
+      <c r="E49">
+        <v>-0.03009111688734487</v>
+      </c>
+      <c r="F49">
+        <v>-0.04042808442775837</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05037615370598667</v>
+        <v>0.0517147646117251</v>
       </c>
       <c r="C50">
-        <v>-0.0128824860840741</v>
+        <v>-0.01140722294992732</v>
       </c>
       <c r="D50">
-        <v>-0.01970797489066782</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02365584177950397</v>
+      </c>
+      <c r="E50">
+        <v>-0.02997230535181207</v>
+      </c>
+      <c r="F50">
+        <v>-0.009765285136225897</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1550990006078292</v>
+        <v>0.1496888702938022</v>
       </c>
       <c r="C52">
-        <v>-0.01912584825456783</v>
+        <v>-0.01785586952623208</v>
       </c>
       <c r="D52">
-        <v>-0.05039017635714699</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04088883191478916</v>
+      </c>
+      <c r="E52">
+        <v>-0.02049677197384926</v>
+      </c>
+      <c r="F52">
+        <v>-0.04322954405129695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1718862488396541</v>
+        <v>0.1715383380079458</v>
       </c>
       <c r="C53">
-        <v>-0.01885470670118958</v>
+        <v>-0.02019062000327385</v>
       </c>
       <c r="D53">
-        <v>-0.01530038745802805</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00339503704868204</v>
+      </c>
+      <c r="E53">
+        <v>-0.02798606730430843</v>
+      </c>
+      <c r="F53">
+        <v>-0.07254391892602592</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01797514763913382</v>
+        <v>0.02058557836985329</v>
       </c>
       <c r="C54">
-        <v>-0.01279888582065814</v>
+        <v>-0.0111270825105663</v>
       </c>
       <c r="D54">
-        <v>-0.02757672724118147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03475760622566114</v>
+      </c>
+      <c r="E54">
+        <v>-0.02218563852382585</v>
+      </c>
+      <c r="F54">
+        <v>0.00156637375029015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1141840795878131</v>
+        <v>0.1150734720043341</v>
       </c>
       <c r="C55">
-        <v>-0.01721899007350714</v>
+        <v>-0.01776024368082088</v>
       </c>
       <c r="D55">
-        <v>-0.012826071915494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006405726427806264</v>
+      </c>
+      <c r="E55">
+        <v>-0.02326287047658851</v>
+      </c>
+      <c r="F55">
+        <v>-0.04665018829574324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1783453703604147</v>
+        <v>0.1770237009893676</v>
       </c>
       <c r="C56">
-        <v>-0.01635204905130113</v>
+        <v>-0.01806880696885685</v>
       </c>
       <c r="D56">
-        <v>-0.01054280842412436</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.004104934969458466</v>
+      </c>
+      <c r="E56">
+        <v>-0.03159048561628884</v>
+      </c>
+      <c r="F56">
+        <v>-0.05297242100011545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0494171851106481</v>
+        <v>0.04459617489128839</v>
       </c>
       <c r="C58">
-        <v>-0.005800488171334525</v>
+        <v>0.0004144921046890074</v>
       </c>
       <c r="D58">
-        <v>-0.05385456472349388</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07164086783453104</v>
+      </c>
+      <c r="E58">
+        <v>-0.03263568745825587</v>
+      </c>
+      <c r="F58">
+        <v>0.0361736979436526</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1601199860317015</v>
+        <v>0.1666065762647962</v>
       </c>
       <c r="C59">
-        <v>-0.01221555378401233</v>
+        <v>-0.02249253793574732</v>
       </c>
       <c r="D59">
-        <v>0.225019345824404</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.217697695244851</v>
+      </c>
+      <c r="E59">
+        <v>0.04664501184395405</v>
+      </c>
+      <c r="F59">
+        <v>0.0342552117589562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2376465531111146</v>
+        <v>0.2318991326986284</v>
       </c>
       <c r="C60">
-        <v>-0.0004198995220147826</v>
+        <v>0.0018731618236466</v>
       </c>
       <c r="D60">
-        <v>-0.04505161519625932</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03820722144037868</v>
+      </c>
+      <c r="E60">
+        <v>-0.006168980483574254</v>
+      </c>
+      <c r="F60">
+        <v>0.0004833450313160688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08880165533339193</v>
+        <v>0.08004280511367233</v>
       </c>
       <c r="C61">
-        <v>-0.01845749441023019</v>
+        <v>-0.01126919614063667</v>
       </c>
       <c r="D61">
-        <v>-0.09697298904178901</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1176880001594586</v>
+      </c>
+      <c r="E61">
+        <v>-0.03902584501373095</v>
+      </c>
+      <c r="F61">
+        <v>-0.01372579388169691</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1699983094046622</v>
+        <v>0.1690687776314321</v>
       </c>
       <c r="C62">
-        <v>-0.02049559127666784</v>
+        <v>-0.02084800559871204</v>
       </c>
       <c r="D62">
-        <v>-0.007048586694252851</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004590698455671726</v>
+      </c>
+      <c r="E62">
+        <v>-0.03231766852300989</v>
+      </c>
+      <c r="F62">
+        <v>-0.03648849153480802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04509175258374094</v>
+        <v>0.0459330571097063</v>
       </c>
       <c r="C63">
-        <v>-0.006144987726124755</v>
+        <v>-0.001761216383680255</v>
       </c>
       <c r="D63">
-        <v>-0.04163502480882181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05936901070246371</v>
+      </c>
+      <c r="E63">
+        <v>-0.02396631934373867</v>
+      </c>
+      <c r="F63">
+        <v>-0.004234771953395355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1120815680490222</v>
+        <v>0.1108324639180825</v>
       </c>
       <c r="C64">
-        <v>-0.01467785717360156</v>
+        <v>-0.01145257508842133</v>
       </c>
       <c r="D64">
-        <v>-0.03216021600181645</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04298011140554127</v>
+      </c>
+      <c r="E64">
+        <v>-0.02240192091600543</v>
+      </c>
+      <c r="F64">
+        <v>-0.02597250479004012</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1392711252543944</v>
+        <v>0.1509100553056884</v>
       </c>
       <c r="C65">
-        <v>-0.03258274671357832</v>
+        <v>-0.03433195120846313</v>
       </c>
       <c r="D65">
-        <v>0.04887981859083558</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04564179068487985</v>
+      </c>
+      <c r="E65">
+        <v>-0.004432566131236683</v>
+      </c>
+      <c r="F65">
+        <v>-0.03576315507071788</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1409540299687677</v>
+        <v>0.1241085661824261</v>
       </c>
       <c r="C66">
-        <v>-0.02274265519009794</v>
+        <v>-0.01375103315141229</v>
       </c>
       <c r="D66">
-        <v>-0.1161089293866097</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1411450452462282</v>
+      </c>
+      <c r="E66">
+        <v>-0.063968098464116</v>
+      </c>
+      <c r="F66">
+        <v>-0.03437816781767627</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06422254941149816</v>
+        <v>0.05725053851351053</v>
       </c>
       <c r="C67">
-        <v>-0.005457457009373519</v>
+        <v>-0.002874655707597056</v>
       </c>
       <c r="D67">
-        <v>-0.05252834422288958</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05560824220824517</v>
+      </c>
+      <c r="E67">
+        <v>-0.01659131060940309</v>
+      </c>
+      <c r="F67">
+        <v>0.02973150357613176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1033934857006903</v>
+        <v>0.1159264073103062</v>
       </c>
       <c r="C68">
-        <v>-0.02067131756351944</v>
+        <v>-0.03297571447619762</v>
       </c>
       <c r="D68">
-        <v>0.2727062188096212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2614815717573715</v>
+      </c>
+      <c r="E68">
+        <v>0.08751176850221622</v>
+      </c>
+      <c r="F68">
+        <v>0.001824731117410936</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04054886600712927</v>
+        <v>0.03897137132011659</v>
       </c>
       <c r="C69">
-        <v>-0.001602224291274704</v>
+        <v>-0.001264932226430213</v>
       </c>
       <c r="D69">
-        <v>-0.007150844442360196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007723278178010065</v>
+      </c>
+      <c r="E69">
+        <v>-0.02334212389420247</v>
+      </c>
+      <c r="F69">
+        <v>-0.0009031542331292829</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06734451187128496</v>
+        <v>0.06675143310402745</v>
       </c>
       <c r="C70">
-        <v>0.02388832971893319</v>
+        <v>0.02732236980982654</v>
       </c>
       <c r="D70">
-        <v>0.01512801454906043</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02432729355538206</v>
+      </c>
+      <c r="E70">
+        <v>0.03078044486858306</v>
+      </c>
+      <c r="F70">
+        <v>0.1787622789066029</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1209823045047308</v>
+        <v>0.1357554738124077</v>
       </c>
       <c r="C71">
-        <v>-0.02412027595276866</v>
+        <v>-0.03734502307245374</v>
       </c>
       <c r="D71">
-        <v>0.2863252202851858</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723378595469212</v>
+      </c>
+      <c r="E71">
+        <v>0.09743901032276864</v>
+      </c>
+      <c r="F71">
+        <v>-0.004151015739577278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1382228752849437</v>
+        <v>0.1428138225014353</v>
       </c>
       <c r="C72">
-        <v>-0.02701461417205014</v>
+        <v>-0.02750798201185352</v>
       </c>
       <c r="D72">
-        <v>-0.001175236869262153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004989876275752282</v>
+      </c>
+      <c r="E72">
+        <v>-0.035766404890282</v>
+      </c>
+      <c r="F72">
+        <v>-0.03066167213807512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2066244130412365</v>
+        <v>0.2045774770039905</v>
       </c>
       <c r="C73">
-        <v>-0.0163094277365348</v>
+        <v>-0.01336526588141952</v>
       </c>
       <c r="D73">
-        <v>-0.01485110931983753</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01673304809243328</v>
+      </c>
+      <c r="E73">
+        <v>-0.06351180081894464</v>
+      </c>
+      <c r="F73">
+        <v>-0.03976735367314832</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09293208729987225</v>
+        <v>0.0954300974462127</v>
       </c>
       <c r="C74">
-        <v>-0.0131970292611453</v>
+        <v>-0.01368765908587143</v>
       </c>
       <c r="D74">
-        <v>-0.0220488355220307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01554819075445263</v>
+      </c>
+      <c r="E74">
+        <v>-0.04336669655949934</v>
+      </c>
+      <c r="F74">
+        <v>-0.05613137172323401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1342258388322574</v>
+        <v>0.1276640336544443</v>
       </c>
       <c r="C75">
-        <v>-0.02975307408653831</v>
+        <v>-0.02858407931857074</v>
       </c>
       <c r="D75">
-        <v>-0.02860923957484346</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02857080466826183</v>
+      </c>
+      <c r="E75">
+        <v>-0.05653201699438551</v>
+      </c>
+      <c r="F75">
+        <v>-0.0217702463685929</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08485663168131354</v>
+        <v>0.0893354557112972</v>
       </c>
       <c r="C77">
-        <v>-0.01532173097656815</v>
+        <v>-0.008036329174900252</v>
       </c>
       <c r="D77">
-        <v>-0.09435859073942809</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1139167585763092</v>
+      </c>
+      <c r="E77">
+        <v>-0.04316351483723895</v>
+      </c>
+      <c r="F77">
+        <v>-0.03521360993449869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1032300506945835</v>
+        <v>0.100455473005421</v>
       </c>
       <c r="C78">
-        <v>-0.0467286291589713</v>
+        <v>-0.03946543756553099</v>
       </c>
       <c r="D78">
-        <v>-0.1029317053419182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1152801598079715</v>
+      </c>
+      <c r="E78">
+        <v>-0.07628346084781552</v>
+      </c>
+      <c r="F78">
+        <v>-0.05203639701407982</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.163624796181164</v>
+        <v>0.1638838672694879</v>
       </c>
       <c r="C79">
-        <v>-0.02348910434402707</v>
+        <v>-0.02333237061020718</v>
       </c>
       <c r="D79">
-        <v>-0.01501500926982329</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01182966180428673</v>
+      </c>
+      <c r="E79">
+        <v>-0.04410239367854979</v>
+      </c>
+      <c r="F79">
+        <v>-0.01151329532808958</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08705713282007212</v>
+        <v>0.08226495383045655</v>
       </c>
       <c r="C80">
-        <v>-0.00168658497104927</v>
+        <v>0.0005923983612430752</v>
       </c>
       <c r="D80">
-        <v>-0.04211159638079103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05512683648862021</v>
+      </c>
+      <c r="E80">
+        <v>-0.03521737027947288</v>
+      </c>
+      <c r="F80">
+        <v>0.01920442225914477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1197851163239933</v>
+        <v>0.1181800717581984</v>
       </c>
       <c r="C81">
-        <v>-0.03199789514219661</v>
+        <v>-0.03204366456861065</v>
       </c>
       <c r="D81">
-        <v>-0.02374541304182689</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01355144990842763</v>
+      </c>
+      <c r="E81">
+        <v>-0.0548802876192439</v>
+      </c>
+      <c r="F81">
+        <v>-0.01939078906900437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.166170396551321</v>
+        <v>0.1663645697555451</v>
       </c>
       <c r="C82">
-        <v>-0.02419472483163445</v>
+        <v>-0.02556100886944793</v>
       </c>
       <c r="D82">
-        <v>-0.01432770804298757</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001168279576252756</v>
+      </c>
+      <c r="E82">
+        <v>-0.0241630457073401</v>
+      </c>
+      <c r="F82">
+        <v>-0.08034237139706478</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06740738001125167</v>
+        <v>0.05869851279366976</v>
       </c>
       <c r="C83">
-        <v>-0.006261697103601764</v>
+        <v>-0.002997771706464607</v>
       </c>
       <c r="D83">
-        <v>-0.03353628680813921</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04952327723884691</v>
+      </c>
+      <c r="E83">
+        <v>-0.002897620369435901</v>
+      </c>
+      <c r="F83">
+        <v>0.02912176577175722</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06497194064513283</v>
+        <v>0.05834094319667519</v>
       </c>
       <c r="C84">
-        <v>-0.0148052127326956</v>
+        <v>-0.01081931203527609</v>
       </c>
       <c r="D84">
-        <v>-0.06497080329174955</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.072641044803283</v>
+      </c>
+      <c r="E84">
+        <v>-0.01444984947690467</v>
+      </c>
+      <c r="F84">
+        <v>-0.01421521680171445</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1367855060630529</v>
+        <v>0.1355532776962971</v>
       </c>
       <c r="C85">
-        <v>-0.02801157736553961</v>
+        <v>-0.02853615257752559</v>
       </c>
       <c r="D85">
-        <v>-0.01813984242799041</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007894620723051454</v>
+      </c>
+      <c r="E85">
+        <v>-0.03506709542972332</v>
+      </c>
+      <c r="F85">
+        <v>-0.04656275225761917</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1052273276433809</v>
+        <v>0.09306276673316022</v>
       </c>
       <c r="C86">
-        <v>0.001697545581500944</v>
+        <v>0.006369881780806163</v>
       </c>
       <c r="D86">
-        <v>0.01138515499030254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05069700970227166</v>
+      </c>
+      <c r="E86">
+        <v>-0.2437305977573988</v>
+      </c>
+      <c r="F86">
+        <v>0.9025730011162101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1008717974359707</v>
+        <v>0.09446964063961469</v>
       </c>
       <c r="C87">
-        <v>-0.02899829891492339</v>
+        <v>-0.01937275695720786</v>
       </c>
       <c r="D87">
-        <v>-0.06564104082362343</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09471860417928304</v>
+      </c>
+      <c r="E87">
+        <v>0.05273041365789346</v>
+      </c>
+      <c r="F87">
+        <v>-0.04766681730936177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06087356004689334</v>
+        <v>0.06047613019656836</v>
       </c>
       <c r="C88">
-        <v>-0.005182935079257475</v>
+        <v>-0.002292261128141826</v>
       </c>
       <c r="D88">
-        <v>-0.05451179216926327</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0493256772973571</v>
+      </c>
+      <c r="E88">
+        <v>-0.02389082824542393</v>
+      </c>
+      <c r="F88">
+        <v>-0.01539948830092507</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1154091493394357</v>
+        <v>0.1269218525191662</v>
       </c>
       <c r="C89">
-        <v>-0.001593140430985505</v>
+        <v>-0.01281943612507635</v>
       </c>
       <c r="D89">
-        <v>0.2610896770762024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2435004854793285</v>
+      </c>
+      <c r="E89">
+        <v>0.08914406463926693</v>
+      </c>
+      <c r="F89">
+        <v>0.01209455954516012</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1319175245090046</v>
+        <v>0.1503148614133891</v>
       </c>
       <c r="C90">
-        <v>-0.0209124816859184</v>
+        <v>-0.03404392849984771</v>
       </c>
       <c r="D90">
-        <v>0.2741611544132276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.270061368949203</v>
+      </c>
+      <c r="E90">
+        <v>0.1136410170208806</v>
+      </c>
+      <c r="F90">
+        <v>0.01245945240340688</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1194652608316472</v>
+        <v>0.1215108168473866</v>
       </c>
       <c r="C91">
-        <v>-0.01905954625850938</v>
+        <v>-0.02024862663512008</v>
       </c>
       <c r="D91">
-        <v>0.007961119712557807</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01679919493738928</v>
+      </c>
+      <c r="E91">
+        <v>-0.05445295280401533</v>
+      </c>
+      <c r="F91">
+        <v>0.001044384728988487</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1373044240729961</v>
+        <v>0.1467085045414701</v>
       </c>
       <c r="C92">
-        <v>-0.01066233139339306</v>
+        <v>-0.02450144722540637</v>
       </c>
       <c r="D92">
-        <v>0.3107169793520408</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2905278684853546</v>
+      </c>
+      <c r="E92">
+        <v>0.1015311737294021</v>
+      </c>
+      <c r="F92">
+        <v>0.0207475394134142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1356120974410855</v>
+        <v>0.1506550389312168</v>
       </c>
       <c r="C93">
-        <v>-0.01641729786503431</v>
+        <v>-0.02886462003634391</v>
       </c>
       <c r="D93">
-        <v>0.269639516609253</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2651127834569359</v>
+      </c>
+      <c r="E93">
+        <v>0.07599758932172065</v>
+      </c>
+      <c r="F93">
+        <v>0.002228976486468782</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.135164995899119</v>
+        <v>0.1284921853677312</v>
       </c>
       <c r="C94">
-        <v>-0.02678383149216309</v>
+        <v>-0.02505674491781747</v>
       </c>
       <c r="D94">
-        <v>-0.04276714246005234</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04011889686400633</v>
+      </c>
+      <c r="E94">
+        <v>-0.05638612123044959</v>
+      </c>
+      <c r="F94">
+        <v>-0.03487215316908387</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1266795303103268</v>
+        <v>0.1256879476923938</v>
       </c>
       <c r="C95">
-        <v>-0.0105226770931731</v>
+        <v>-0.003225780171194063</v>
       </c>
       <c r="D95">
-        <v>-0.07538323333430501</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09820403681740726</v>
+      </c>
+      <c r="E95">
+        <v>-0.05303615841648459</v>
+      </c>
+      <c r="F95">
+        <v>0.005350502728690746</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1156752699114929</v>
+        <v>0.1106133902057262</v>
       </c>
       <c r="C96">
-        <v>0.9874871126476572</v>
+        <v>0.9869563666225651</v>
       </c>
       <c r="D96">
-        <v>0.008857545709605842</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.0510399319733082</v>
+      </c>
+      <c r="E96">
+        <v>-0.05241358318946117</v>
+      </c>
+      <c r="F96">
+        <v>-0.04313396555784241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1922655175747549</v>
+        <v>0.1921419906342297</v>
       </c>
       <c r="C97">
-        <v>0.006672023874423148</v>
+        <v>0.006418004802932262</v>
       </c>
       <c r="D97">
-        <v>0.01640222474152803</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02150244583489266</v>
+      </c>
+      <c r="E97">
+        <v>-0.02032492175514674</v>
+      </c>
+      <c r="F97">
+        <v>0.09126433577360697</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2003379898117122</v>
+        <v>0.2063701440851239</v>
       </c>
       <c r="C98">
-        <v>-0.01023406581754649</v>
+        <v>-0.007285782674940572</v>
       </c>
       <c r="D98">
-        <v>-0.01215364773382898</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01322553136045302</v>
+      </c>
+      <c r="E98">
+        <v>0.07492792071129685</v>
+      </c>
+      <c r="F98">
+        <v>0.09212305701060899</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05656576593736665</v>
+        <v>0.05480581113737418</v>
       </c>
       <c r="C99">
-        <v>0.002089482668030235</v>
+        <v>0.004378590336171829</v>
       </c>
       <c r="D99">
-        <v>-0.02288068284601476</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03830193981404797</v>
+      </c>
+      <c r="E99">
+        <v>-0.02122507136623716</v>
+      </c>
+      <c r="F99">
+        <v>-0.003778621237269366</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1420867020166132</v>
+        <v>0.1285944265956915</v>
       </c>
       <c r="C100">
-        <v>0.03774246734460032</v>
+        <v>0.05298564000167284</v>
       </c>
       <c r="D100">
-        <v>-0.4256657132091414</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3497084458424997</v>
+      </c>
+      <c r="E100">
+        <v>0.8827559522744277</v>
+      </c>
+      <c r="F100">
+        <v>0.1695917465903697</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02612216412462961</v>
+        <v>0.02878810784139675</v>
       </c>
       <c r="C101">
-        <v>-0.009963966327107823</v>
+        <v>-0.00880476497759484</v>
       </c>
       <c r="D101">
-        <v>-0.02059600906366083</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03104704845673964</v>
+      </c>
+      <c r="E101">
+        <v>-0.01352272263361593</v>
+      </c>
+      <c r="F101">
+        <v>0.01361896993982612</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
